--- a/Data/Lice.xlsx
+++ b/Data/Lice.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="11040" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="11040" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Esther Okpor's Data" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="81">
   <si>
     <t>BIRD NUMBER</t>
   </si>
@@ -276,12 +276,15 @@
   <si>
     <t>Menopon_galinae</t>
   </si>
+  <si>
+    <t>Mecanthis straminus</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -331,6 +334,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -367,7 +378,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -400,6 +411,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,6 +427,1151 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet6!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mecanthis straminus</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="51000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="80000">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="93000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="94000"/>
+                    <a:satMod val="135000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet6!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Eluseh</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Iguosa</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Okhoro</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>SSQ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet6!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4CC6-49C5-A67A-242446072C19}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet6!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Menopon galinae</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:shade val="51000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="80000">
+                  <a:schemeClr val="accent2">
+                    <a:shade val="93000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:shade val="94000"/>
+                    <a:satMod val="135000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet6!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Eluseh</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Iguosa</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Okhoro</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>SSQ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet6!$C$2:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4CC6-49C5-A67A-242446072C19}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="1386721440"/>
+        <c:axId val="1386718944"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1386721440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1386718944"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1386718944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Prevaence (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1386721440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="1" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2864,7 +4021,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
@@ -5792,14 +6949,77 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2">
+        <v>92</v>
+      </c>
+      <c r="C2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3">
+        <v>98</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4">
+        <v>98</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5">
+        <v>100</v>
+      </c>
+      <c r="C5">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Data/Lice.xlsx
+++ b/Data/Lice.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="11040" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="11040" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Esther Okpor's Data" sheetId="1" r:id="rId1"/>
@@ -515,29 +515,12 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:shade val="51000"/>
-                    <a:satMod val="130000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="80000">
-                  <a:schemeClr val="accent1">
-                    <a:shade val="93000"/>
-                    <a:satMod val="130000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:shade val="94000"/>
-                    <a:satMod val="135000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="16200000" scaled="0"/>
-            </a:gradFill>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2942,7 +2925,7 @@
   </sheetPr>
   <dimension ref="C1:L54"/>
   <sheetViews>
-    <sheetView zoomScale="63" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="63" workbookViewId="0">
       <selection activeCell="L3" sqref="L3:L53"/>
     </sheetView>
   </sheetViews>
@@ -6951,8 +6934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView zoomScale="108" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Data/Lice.xlsx
+++ b/Data/Lice.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="11040" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="11040" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Esther Okpor's Data" sheetId="1" r:id="rId1"/>
@@ -277,7 +277,7 @@
     <t>Menopon_galinae</t>
   </si>
   <si>
-    <t>Mecanthis straminus</t>
+    <t>Mecanthis stramineus</t>
   </si>
 </sst>
 </file>
@@ -509,7 +509,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Mecanthis straminus</c:v>
+                  <c:v>Mecanthis stramineus</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2925,7 +2925,7 @@
   </sheetPr>
   <dimension ref="C1:L54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="63" workbookViewId="0">
+    <sheetView zoomScale="63" workbookViewId="0">
       <selection activeCell="L3" sqref="L3:L53"/>
     </sheetView>
   </sheetViews>
@@ -6934,8 +6934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView zoomScale="108" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Data/Lice.xlsx
+++ b/Data/Lice.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\Git in R\Ticks\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="11040" activeTab="5"/>
+    <workbookView windowWidth="17771" windowHeight="9707" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Esther Okpor's Data" sheetId="1" r:id="rId1"/>
@@ -19,12 +14,31 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="83">
+  <si>
+    <t>Menacanthis straminus</t>
+  </si>
+  <si>
+    <t>Menopon galinae</t>
+  </si>
   <si>
     <t>BIRD NUMBER</t>
   </si>
@@ -185,64 +199,32 @@
     <t>Bird 50</t>
   </si>
   <si>
-    <t>Iguosa</t>
+    <t>SSQ DATA</t>
+  </si>
+  <si>
+    <t>IGUOSA DATA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bird number </t>
   </si>
   <si>
     <t xml:space="preserve">Menacanthus stramineus </t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>7.5ml</t>
-  </si>
-  <si>
-    <t>10ml</t>
-  </si>
-  <si>
-    <t>Day 1</t>
-  </si>
-  <si>
-    <t>Day 2</t>
-  </si>
-  <si>
-    <t>Esther Okpor:</t>
-  </si>
-  <si>
-    <t>Sandra Olagbende:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSQ </t>
-  </si>
-  <si>
-    <t>Okhoro</t>
-  </si>
-  <si>
-    <t>Eluseh</t>
-  </si>
-  <si>
-    <t>Menacanthis straminus</t>
-  </si>
-  <si>
-    <t>Menopon galinae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bird number </t>
-  </si>
-  <si>
     <t xml:space="preserve">Menopon gallinae </t>
   </si>
   <si>
-    <t>SSQ DATA</t>
-  </si>
-  <si>
     <t>Bird number</t>
   </si>
   <si>
-    <t>IGUOSA DATA</t>
-  </si>
-  <si>
     <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>Menopon gallinae</t>
     </r>
     <r>
@@ -250,19 +232,34 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Data_collector</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Menacanthis_straminus</t>
+  </si>
+  <si>
+    <t>Menopon_galinae</t>
+  </si>
+  <si>
     <t>Esther</t>
   </si>
   <si>
-    <t>Data_collector</t>
-  </si>
-  <si>
-    <t>Location</t>
+    <t>Okhoro</t>
+  </si>
+  <si>
+    <t>Eluseh</t>
   </si>
   <si>
     <t>Sandra</t>
@@ -271,60 +268,92 @@
     <t>SSQ</t>
   </si>
   <si>
-    <t>Menacanthis_straminus</t>
-  </si>
-  <si>
-    <t>Menopon_galinae</t>
+    <t>Iguosa</t>
+  </si>
+  <si>
+    <t>Sandra Olagbende:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSQ </t>
+  </si>
+  <si>
+    <t>Esther Okpor:</t>
+  </si>
+  <si>
+    <t>Day 1</t>
+  </si>
+  <si>
+    <t>7.5ml</t>
+  </si>
+  <si>
+    <t>10ml</t>
+  </si>
+  <si>
+    <t>Day 2</t>
   </si>
   <si>
     <t>Mecanthis stramineus</t>
+  </si>
+  <si>
+    <t>Menopon gallinae</t>
+  </si>
+  <si>
+    <t>Erhunmwunse</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <i/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -332,26 +361,354 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -361,78 +718,364 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -450,7 +1093,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -463,6 +1106,7 @@
               <a:rPr lang="en-US"/>
               <a:t> </a:t>
             </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -475,27 +1119,20 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12870549268562"/>
+          <c:y val="0.228248326794369"/>
+          <c:w val="0.840932928512283"/>
+          <c:h val="0.574290330025387"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -534,6 +1171,146 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr defTabSz="914400">
+                      <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx2"/>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:t>92.0</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr defTabSz="914400">
+                      <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx2"/>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:t>98.0</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr defTabSz="914400">
+                      <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx2"/>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:t>98.0</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr defTabSz="914400">
+                      <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx2"/>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:t>100.0</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -548,7 +1325,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx2"/>
                     </a:solidFill>
@@ -557,7 +1334,6 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -594,7 +1370,7 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Eluseh</c:v>
+                  <c:v>Erhunmwunse</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Iguosa</c:v>
@@ -629,11 +1405,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4CC6-49C5-A67A-242446072C19}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -644,7 +1415,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Menopon galinae</c:v>
+                  <c:v>Menopon gallinae</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -686,6 +1457,146 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr defTabSz="914400">
+                      <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx2"/>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:t>24.0</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr defTabSz="914400">
+                      <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx2"/>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:t>0.0</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr defTabSz="914400">
+                      <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx2"/>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:t>6.0</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr defTabSz="914400">
+                      <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx2"/>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:t>30.0</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -700,7 +1611,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx2"/>
                     </a:solidFill>
@@ -709,7 +1620,6 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -746,7 +1656,7 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Eluseh</c:v>
+                  <c:v>Erhunmwunse</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Iguosa</c:v>
@@ -781,14 +1691,8 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4CC6-49C5-A67A-242446072C19}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
@@ -808,6 +1712,45 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:t>Localities of study farms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.407990615512007"/>
+              <c:y val="0.898915301177014"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -830,7 +1773,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -839,7 +1782,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1386718944"/>
@@ -864,7 +1806,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx2"/>
                     </a:solidFill>
@@ -875,8 +1817,9 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Prevaence (%)</a:t>
+                  <a:t>Prevalence (%)</a:t>
                 </a:r>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -889,23 +1832,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx2"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -923,7 +1849,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -932,7 +1858,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1386721440"/>
@@ -949,7 +1874,14 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.278843499861993"/>
+          <c:y val="0.0514654973459497"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -963,7 +1895,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="1" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr lang="en-US" sz="900" b="0" i="1" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx2"/>
               </a:solidFill>
@@ -972,13 +1904,17 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{8f1c6c91-8f55-464b-9772-4c16678539b0}"/>
+      </c:ext>
+    </c:extLst>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1000,9 +1936,8 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr lang="en-US"/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1523,7 +2458,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
@@ -1537,14 +2472,14 @@
       <xdr:row>25</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="4953000" y="1885950"/>
+        <a:ext cx="4625340" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1600,7 +2535,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1635,7 +2570,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1838,2203 +2773,2205 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
   <dimension ref="D3:L55"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A34" workbookViewId="0">
       <selection activeCell="L5" sqref="L5:L55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.11111111111111" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="3" width="9.109375" style="6"/>
-    <col min="4" max="4" width="23.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="9.109375" style="6"/>
-    <col min="10" max="10" width="18" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.88671875" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.109375" style="6"/>
+    <col min="1" max="3" width="9.11111111111111" style="3"/>
+    <col min="4" max="4" width="23.6666666666667" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.3333333333333" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.88888888888889" style="3" customWidth="1"/>
+    <col min="7" max="9" width="9.11111111111111" style="3"/>
+    <col min="10" max="10" width="18" style="3" customWidth="1"/>
+    <col min="11" max="11" width="11.3333333333333" style="3" customWidth="1"/>
+    <col min="12" max="12" width="9.88888888888889" style="3" customWidth="1"/>
+    <col min="13" max="16384" width="9.11111111111111" style="3"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:12" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="D3" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D4" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D5" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="10">
-        <v>4</v>
-      </c>
-      <c r="F5" s="10">
-        <v>3</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="K5" s="10">
-        <v>0</v>
-      </c>
-      <c r="L5" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D6" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="10">
-        <v>3</v>
-      </c>
-      <c r="F6" s="10">
-        <v>3</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="K6" s="10">
-        <v>0</v>
-      </c>
-      <c r="L6" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D7" s="9" t="s">
+    <row r="3" spans="4:10">
+      <c r="D3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="4:12">
+      <c r="D4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="4:12">
+      <c r="D5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="10">
-        <v>3</v>
-      </c>
-      <c r="F7" s="10">
-        <v>1</v>
-      </c>
-      <c r="J7" s="9" t="s">
+      <c r="E5" s="12">
+        <v>4</v>
+      </c>
+      <c r="F5" s="12">
+        <v>3</v>
+      </c>
+      <c r="J5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="K7" s="10">
-        <v>0</v>
-      </c>
-      <c r="L7" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D8" s="9" t="s">
+      <c r="K5" s="12">
+        <v>0</v>
+      </c>
+      <c r="L5" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="4:12">
+      <c r="D6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="10">
-        <v>3</v>
-      </c>
-      <c r="F8" s="10">
-        <v>3</v>
-      </c>
-      <c r="J8" s="9" t="s">
+      <c r="E6" s="12">
+        <v>3</v>
+      </c>
+      <c r="F6" s="12">
+        <v>3</v>
+      </c>
+      <c r="J6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="K8" s="10">
-        <v>0</v>
-      </c>
-      <c r="L8" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D9" s="9" t="s">
+      <c r="K6" s="12">
+        <v>0</v>
+      </c>
+      <c r="L6" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="4:12">
+      <c r="D7" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="10">
-        <v>3</v>
-      </c>
-      <c r="F9" s="10">
-        <v>3</v>
-      </c>
-      <c r="J9" s="9" t="s">
+      <c r="E7" s="12">
+        <v>3</v>
+      </c>
+      <c r="F7" s="12">
+        <v>1</v>
+      </c>
+      <c r="J7" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="K9" s="10">
-        <v>0</v>
-      </c>
-      <c r="L9" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D10" s="9" t="s">
+      <c r="K7" s="12">
+        <v>0</v>
+      </c>
+      <c r="L7" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="4:12">
+      <c r="D8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="10">
-        <v>4</v>
-      </c>
-      <c r="F10" s="10">
-        <v>2</v>
-      </c>
-      <c r="J10" s="9" t="s">
+      <c r="E8" s="12">
+        <v>3</v>
+      </c>
+      <c r="F8" s="12">
+        <v>3</v>
+      </c>
+      <c r="J8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="K10" s="10">
-        <v>0</v>
-      </c>
-      <c r="L10" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D11" s="9" t="s">
+      <c r="K8" s="12">
+        <v>0</v>
+      </c>
+      <c r="L8" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="4:12">
+      <c r="D9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="10">
-        <v>3</v>
-      </c>
-      <c r="F11" s="10">
-        <v>2</v>
-      </c>
-      <c r="J11" s="9" t="s">
+      <c r="E9" s="12">
+        <v>3</v>
+      </c>
+      <c r="F9" s="12">
+        <v>3</v>
+      </c>
+      <c r="J9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K11" s="10">
-        <v>0</v>
-      </c>
-      <c r="L11" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D12" s="9" t="s">
+      <c r="K9" s="12">
+        <v>0</v>
+      </c>
+      <c r="L9" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="4:12">
+      <c r="D10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="10">
-        <v>1</v>
-      </c>
-      <c r="F12" s="10">
-        <v>0</v>
-      </c>
-      <c r="J12" s="9" t="s">
+      <c r="E10" s="12">
+        <v>4</v>
+      </c>
+      <c r="F10" s="12">
+        <v>2</v>
+      </c>
+      <c r="J10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="K12" s="10">
-        <v>0</v>
-      </c>
-      <c r="L12" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D13" s="9" t="s">
+      <c r="K10" s="12">
+        <v>0</v>
+      </c>
+      <c r="L10" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="4:12">
+      <c r="D11" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="10">
-        <v>1</v>
-      </c>
-      <c r="F13" s="10">
-        <v>2</v>
-      </c>
-      <c r="J13" s="9" t="s">
+      <c r="E11" s="12">
+        <v>3</v>
+      </c>
+      <c r="F11" s="12">
+        <v>2</v>
+      </c>
+      <c r="J11" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K13" s="10">
-        <v>0</v>
-      </c>
-      <c r="L13" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D14" s="9" t="s">
+      <c r="K11" s="12">
+        <v>0</v>
+      </c>
+      <c r="L11" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="4:12">
+      <c r="D12" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="10">
-        <v>2</v>
-      </c>
-      <c r="F14" s="10">
-        <v>3</v>
-      </c>
-      <c r="J14" s="9" t="s">
+      <c r="E12" s="12">
+        <v>1</v>
+      </c>
+      <c r="F12" s="12">
+        <v>0</v>
+      </c>
+      <c r="J12" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="K14" s="10">
-        <v>0</v>
-      </c>
-      <c r="L14" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D15" s="9" t="s">
+      <c r="K12" s="12">
+        <v>0</v>
+      </c>
+      <c r="L12" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="4:12">
+      <c r="D13" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="10">
-        <v>1</v>
-      </c>
-      <c r="F15" s="10">
-        <v>3</v>
-      </c>
-      <c r="J15" s="9" t="s">
+      <c r="E13" s="12">
+        <v>1</v>
+      </c>
+      <c r="F13" s="12">
+        <v>2</v>
+      </c>
+      <c r="J13" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="K15" s="10">
-        <v>0</v>
-      </c>
-      <c r="L15" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D16" s="9" t="s">
+      <c r="K13" s="12">
+        <v>0</v>
+      </c>
+      <c r="L13" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="4:12">
+      <c r="D14" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E14" s="12">
+        <v>2</v>
+      </c>
+      <c r="F14" s="12">
+        <v>3</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" s="12">
+        <v>0</v>
+      </c>
+      <c r="L14" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="4:12">
+      <c r="D15" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="12">
+        <v>1</v>
+      </c>
+      <c r="F15" s="12">
+        <v>3</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K15" s="12">
+        <v>0</v>
+      </c>
+      <c r="L15" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="4:12">
+      <c r="D16" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="12">
         <v>6</v>
       </c>
-      <c r="F16" s="10">
-        <v>3</v>
-      </c>
-      <c r="J16" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="K16" s="10">
-        <v>0</v>
-      </c>
-      <c r="L16" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D17" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="10">
-        <v>4</v>
-      </c>
-      <c r="F17" s="10">
-        <v>2</v>
-      </c>
-      <c r="J17" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="K17" s="10">
-        <v>0</v>
-      </c>
-      <c r="L17" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D18" s="9" t="s">
+      <c r="F16" s="12">
+        <v>3</v>
+      </c>
+      <c r="J16" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="10">
-        <v>2</v>
-      </c>
-      <c r="F18" s="10">
-        <v>0</v>
-      </c>
-      <c r="J18" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K18" s="10">
-        <v>0</v>
-      </c>
-      <c r="L18" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D19" s="12" t="s">
+      <c r="K16" s="12">
+        <v>0</v>
+      </c>
+      <c r="L16" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="4:12">
+      <c r="D17" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="5">
-        <v>2</v>
-      </c>
-      <c r="F19" s="5">
-        <v>2</v>
-      </c>
-      <c r="J19" s="12" t="s">
+      <c r="E17" s="12">
+        <v>4</v>
+      </c>
+      <c r="F17" s="12">
+        <v>2</v>
+      </c>
+      <c r="J17" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K19" s="10">
-        <v>0</v>
-      </c>
-      <c r="L19" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D20" s="12" t="s">
+      <c r="K17" s="12">
+        <v>0</v>
+      </c>
+      <c r="L17" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="4:12">
+      <c r="D18" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="11">
-        <v>1</v>
-      </c>
-      <c r="F20" s="11">
-        <v>2</v>
-      </c>
-      <c r="J20" s="12" t="s">
+      <c r="E18" s="12">
+        <v>2</v>
+      </c>
+      <c r="F18" s="12">
+        <v>0</v>
+      </c>
+      <c r="J18" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K20" s="10">
-        <v>0</v>
-      </c>
-      <c r="L20" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D21" s="12" t="s">
+      <c r="K18" s="12">
+        <v>0</v>
+      </c>
+      <c r="L18" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="4:12">
+      <c r="D19" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="11">
-        <v>3</v>
-      </c>
-      <c r="F21" s="11">
-        <v>3</v>
-      </c>
-      <c r="J21" s="12" t="s">
+      <c r="E19" s="8">
+        <v>2</v>
+      </c>
+      <c r="F19" s="8">
+        <v>2</v>
+      </c>
+      <c r="J19" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="K21" s="10">
-        <v>0</v>
-      </c>
-      <c r="L21" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D22" s="12" t="s">
+      <c r="K19" s="12">
+        <v>0</v>
+      </c>
+      <c r="L19" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="4:12">
+      <c r="D20" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E20" s="14">
+        <v>1</v>
+      </c>
+      <c r="F20" s="14">
+        <v>2</v>
+      </c>
+      <c r="J20" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" s="12">
+        <v>0</v>
+      </c>
+      <c r="L20" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="4:12">
+      <c r="D21" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="14">
+        <v>3</v>
+      </c>
+      <c r="F21" s="14">
+        <v>3</v>
+      </c>
+      <c r="J21" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K21" s="12">
+        <v>0</v>
+      </c>
+      <c r="L21" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="4:12">
+      <c r="D22" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="14">
         <v>5</v>
       </c>
-      <c r="F22" s="11">
-        <v>2</v>
-      </c>
-      <c r="J22" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="K22" s="10">
-        <v>0</v>
-      </c>
-      <c r="L22" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D23" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" s="11">
-        <v>3</v>
-      </c>
-      <c r="F23" s="11">
-        <v>4</v>
-      </c>
-      <c r="J23" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K23" s="10">
-        <v>0</v>
-      </c>
-      <c r="L23" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D24" s="12" t="s">
+      <c r="F22" s="14">
+        <v>2</v>
+      </c>
+      <c r="J22" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="5">
-        <v>4</v>
-      </c>
-      <c r="F24" s="5">
-        <v>3</v>
-      </c>
-      <c r="J24" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K24" s="10">
-        <v>0</v>
-      </c>
-      <c r="L24" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D25" s="12" t="s">
+      <c r="K22" s="12">
+        <v>0</v>
+      </c>
+      <c r="L22" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="4:12">
+      <c r="D23" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="5">
-        <v>3</v>
-      </c>
-      <c r="F25" s="5">
-        <v>1</v>
-      </c>
-      <c r="J25" s="8" t="s">
+      <c r="E23" s="14">
+        <v>3</v>
+      </c>
+      <c r="F23" s="14">
+        <v>4</v>
+      </c>
+      <c r="J23" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="K25" s="10">
-        <v>0</v>
-      </c>
-      <c r="L25" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D26" s="12" t="s">
+      <c r="K23" s="12">
+        <v>0</v>
+      </c>
+      <c r="L23" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="4:12">
+      <c r="D24" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="5">
-        <v>2</v>
-      </c>
-      <c r="F26" s="5">
-        <v>3</v>
-      </c>
-      <c r="J26" s="8" t="s">
+      <c r="E24" s="8">
+        <v>4</v>
+      </c>
+      <c r="F24" s="8">
+        <v>3</v>
+      </c>
+      <c r="J24" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="K26" s="10">
-        <v>0</v>
-      </c>
-      <c r="L26" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D27" s="12" t="s">
+      <c r="K24" s="12">
+        <v>0</v>
+      </c>
+      <c r="L24" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="4:12">
+      <c r="D25" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E27" s="5">
-        <v>4</v>
-      </c>
-      <c r="F27" s="5">
-        <v>3</v>
-      </c>
-      <c r="J27" s="8" t="s">
+      <c r="E25" s="8">
+        <v>3</v>
+      </c>
+      <c r="F25" s="8">
+        <v>1</v>
+      </c>
+      <c r="J25" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K27" s="10">
-        <v>0</v>
-      </c>
-      <c r="L27" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D28" s="12" t="s">
+      <c r="K25" s="12">
+        <v>0</v>
+      </c>
+      <c r="L25" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="4:12">
+      <c r="D26" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E28" s="5">
-        <v>2</v>
-      </c>
-      <c r="F28" s="5">
-        <v>2</v>
-      </c>
-      <c r="J28" s="8" t="s">
+      <c r="E26" s="8">
+        <v>2</v>
+      </c>
+      <c r="F26" s="8">
+        <v>3</v>
+      </c>
+      <c r="J26" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="K28" s="10">
-        <v>0</v>
-      </c>
-      <c r="L28" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D29" s="12" t="s">
+      <c r="K26" s="12">
+        <v>0</v>
+      </c>
+      <c r="L26" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="4:12">
+      <c r="D27" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E29" s="5">
-        <v>1</v>
-      </c>
-      <c r="F29" s="5">
-        <v>1</v>
-      </c>
-      <c r="J29" s="8" t="s">
+      <c r="E27" s="8">
+        <v>4</v>
+      </c>
+      <c r="F27" s="8">
+        <v>3</v>
+      </c>
+      <c r="J27" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="K29" s="10">
-        <v>0</v>
-      </c>
-      <c r="L29" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D30" s="12" t="s">
+      <c r="K27" s="12">
+        <v>0</v>
+      </c>
+      <c r="L27" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="4:12">
+      <c r="D28" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E30" s="5">
-        <v>2</v>
-      </c>
-      <c r="F30" s="5">
-        <v>1</v>
-      </c>
-      <c r="J30" s="8" t="s">
+      <c r="E28" s="8">
+        <v>2</v>
+      </c>
+      <c r="F28" s="8">
+        <v>2</v>
+      </c>
+      <c r="J28" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K30" s="10">
-        <v>0</v>
-      </c>
-      <c r="L30" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D31" s="12" t="s">
+      <c r="K28" s="12">
+        <v>0</v>
+      </c>
+      <c r="L28" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="4:12">
+      <c r="D29" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E31" s="5">
-        <v>4</v>
-      </c>
-      <c r="F31" s="5">
-        <v>4</v>
-      </c>
-      <c r="J31" s="8" t="s">
+      <c r="E29" s="8">
+        <v>1</v>
+      </c>
+      <c r="F29" s="8">
+        <v>1</v>
+      </c>
+      <c r="J29" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="K31" s="10">
-        <v>0</v>
-      </c>
-      <c r="L31" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D32" s="12" t="s">
+      <c r="K29" s="12">
+        <v>0</v>
+      </c>
+      <c r="L29" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="4:12">
+      <c r="D30" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E32" s="5">
-        <v>4</v>
-      </c>
-      <c r="F32" s="5">
+      <c r="E30" s="8">
+        <v>2</v>
+      </c>
+      <c r="F30" s="8">
+        <v>1</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="K30" s="12">
+        <v>0</v>
+      </c>
+      <c r="L30" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="4:12">
+      <c r="D31" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" s="8">
+        <v>4</v>
+      </c>
+      <c r="F31" s="8">
+        <v>4</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K31" s="12">
+        <v>0</v>
+      </c>
+      <c r="L31" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="4:12">
+      <c r="D32" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E32" s="8">
+        <v>4</v>
+      </c>
+      <c r="F32" s="8">
         <v>5</v>
       </c>
-      <c r="J32" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="K32" s="10">
-        <v>0</v>
-      </c>
-      <c r="L32" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D33" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E33" s="5">
-        <v>2</v>
-      </c>
-      <c r="F33" s="5">
-        <v>2</v>
-      </c>
-      <c r="J33" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="K33" s="11">
-        <v>2</v>
-      </c>
-      <c r="L33" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D34" s="12" t="s">
+      <c r="J32" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E34" s="5">
-        <v>1</v>
-      </c>
-      <c r="F34" s="5">
-        <v>1</v>
-      </c>
-      <c r="J34" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="K34" s="10">
-        <v>0</v>
-      </c>
-      <c r="L34" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D35" s="12" t="s">
+      <c r="K32" s="12">
+        <v>0</v>
+      </c>
+      <c r="L32" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="4:12">
+      <c r="D33" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E35" s="5">
-        <v>4</v>
-      </c>
-      <c r="F35" s="5">
-        <v>4</v>
-      </c>
-      <c r="J35" s="8" t="s">
+      <c r="E33" s="8">
+        <v>2</v>
+      </c>
+      <c r="F33" s="8">
+        <v>2</v>
+      </c>
+      <c r="J33" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="K35" s="10">
-        <v>0</v>
-      </c>
-      <c r="L35" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D36" s="12" t="s">
+      <c r="K33" s="14">
+        <v>2</v>
+      </c>
+      <c r="L33" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="4:12">
+      <c r="D34" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E36" s="5">
-        <v>0</v>
-      </c>
-      <c r="F36" s="5">
-        <v>3</v>
-      </c>
-      <c r="J36" s="8" t="s">
+      <c r="E34" s="8">
+        <v>1</v>
+      </c>
+      <c r="F34" s="8">
+        <v>1</v>
+      </c>
+      <c r="J34" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="K36" s="11">
-        <v>4</v>
-      </c>
-      <c r="L36" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D37" s="9" t="s">
+      <c r="K34" s="12">
+        <v>0</v>
+      </c>
+      <c r="L34" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="4:12">
+      <c r="D35" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E37" s="10">
-        <v>4</v>
-      </c>
-      <c r="F37" s="10">
-        <v>2</v>
-      </c>
-      <c r="J37" s="9" t="s">
+      <c r="E35" s="8">
+        <v>4</v>
+      </c>
+      <c r="F35" s="8">
+        <v>4</v>
+      </c>
+      <c r="J35" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="K37" s="10">
-        <v>0</v>
-      </c>
-      <c r="L37" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D38" s="9" t="s">
+      <c r="K35" s="12">
+        <v>0</v>
+      </c>
+      <c r="L35" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="4:12">
+      <c r="D36" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E38" s="10">
-        <v>3</v>
-      </c>
-      <c r="F38" s="10">
-        <v>3</v>
-      </c>
-      <c r="J38" s="9" t="s">
+      <c r="E36" s="8">
+        <v>0</v>
+      </c>
+      <c r="F36" s="8">
+        <v>3</v>
+      </c>
+      <c r="J36" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="K38" s="10">
-        <v>0</v>
-      </c>
-      <c r="L38" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D39" s="9" t="s">
+      <c r="K36" s="14">
+        <v>4</v>
+      </c>
+      <c r="L36" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="4:12">
+      <c r="D37" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E39" s="10">
-        <v>3</v>
-      </c>
-      <c r="F39" s="10">
-        <v>3</v>
-      </c>
-      <c r="J39" s="9" t="s">
+      <c r="E37" s="12">
+        <v>4</v>
+      </c>
+      <c r="F37" s="12">
+        <v>2</v>
+      </c>
+      <c r="J37" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K39" s="10">
-        <v>0</v>
-      </c>
-      <c r="L39" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D40" s="9" t="s">
+      <c r="K37" s="12">
+        <v>0</v>
+      </c>
+      <c r="L37" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="4:12">
+      <c r="D38" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E40" s="10">
-        <v>3</v>
-      </c>
-      <c r="F40" s="10">
-        <v>3</v>
-      </c>
-      <c r="J40" s="9" t="s">
+      <c r="E38" s="12">
+        <v>3</v>
+      </c>
+      <c r="F38" s="12">
+        <v>3</v>
+      </c>
+      <c r="J38" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K40" s="10">
-        <v>0</v>
-      </c>
-      <c r="L40" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D41" s="9" t="s">
+      <c r="K38" s="12">
+        <v>0</v>
+      </c>
+      <c r="L38" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="4:12">
+      <c r="D39" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E41" s="10">
-        <v>3</v>
-      </c>
-      <c r="F41" s="10">
-        <v>2</v>
-      </c>
-      <c r="J41" s="9" t="s">
+      <c r="E39" s="12">
+        <v>3</v>
+      </c>
+      <c r="F39" s="12">
+        <v>3</v>
+      </c>
+      <c r="J39" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="K41" s="10">
-        <v>0</v>
-      </c>
-      <c r="L41" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D42" s="9" t="s">
+      <c r="K39" s="12">
+        <v>0</v>
+      </c>
+      <c r="L39" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="4:12">
+      <c r="D40" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E42" s="10">
-        <v>3</v>
-      </c>
-      <c r="F42" s="10">
-        <v>4</v>
-      </c>
-      <c r="J42" s="9" t="s">
+      <c r="E40" s="12">
+        <v>3</v>
+      </c>
+      <c r="F40" s="12">
+        <v>3</v>
+      </c>
+      <c r="J40" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="K42" s="10">
-        <v>0</v>
-      </c>
-      <c r="L42" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D43" s="9" t="s">
+      <c r="K40" s="12">
+        <v>0</v>
+      </c>
+      <c r="L40" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="4:12">
+      <c r="D41" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E43" s="10">
+      <c r="E41" s="12">
+        <v>3</v>
+      </c>
+      <c r="F41" s="12">
+        <v>2</v>
+      </c>
+      <c r="J41" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K41" s="12">
+        <v>0</v>
+      </c>
+      <c r="L41" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="4:12">
+      <c r="D42" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E42" s="12">
+        <v>3</v>
+      </c>
+      <c r="F42" s="12">
+        <v>4</v>
+      </c>
+      <c r="J42" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="K42" s="12">
+        <v>0</v>
+      </c>
+      <c r="L42" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="4:12">
+      <c r="D43" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E43" s="12">
         <v>5</v>
       </c>
-      <c r="F43" s="10">
-        <v>2</v>
-      </c>
-      <c r="J43" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="K43" s="10">
-        <v>0</v>
-      </c>
-      <c r="L43" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D44" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E44" s="10">
-        <v>3</v>
-      </c>
-      <c r="F44" s="10">
-        <v>3</v>
-      </c>
-      <c r="J44" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="K44" s="10">
-        <v>0</v>
-      </c>
-      <c r="L44" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D45" s="9" t="s">
+      <c r="F43" s="12">
+        <v>2</v>
+      </c>
+      <c r="J43" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E45" s="10">
+      <c r="K43" s="12">
+        <v>0</v>
+      </c>
+      <c r="L43" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="4:12">
+      <c r="D44" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E44" s="12">
+        <v>3</v>
+      </c>
+      <c r="F44" s="12">
+        <v>3</v>
+      </c>
+      <c r="J44" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="K44" s="12">
+        <v>0</v>
+      </c>
+      <c r="L44" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="4:12">
+      <c r="D45" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E45" s="12">
         <v>5</v>
       </c>
-      <c r="F45" s="10">
-        <v>0</v>
-      </c>
-      <c r="J45" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="K45" s="10">
-        <v>0</v>
-      </c>
-      <c r="L45" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D46" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E46" s="10">
-        <v>3</v>
-      </c>
-      <c r="F46" s="10">
-        <v>3</v>
-      </c>
-      <c r="J46" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="K46" s="10">
-        <v>0</v>
-      </c>
-      <c r="L46" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D47" s="9" t="s">
+      <c r="F45" s="12">
+        <v>0</v>
+      </c>
+      <c r="J45" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E47" s="10">
-        <v>2</v>
-      </c>
-      <c r="F47" s="10">
-        <v>0</v>
-      </c>
-      <c r="J47" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="K47" s="10">
-        <v>0</v>
-      </c>
-      <c r="L47" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D48" s="9" t="s">
+      <c r="K45" s="12">
+        <v>0</v>
+      </c>
+      <c r="L45" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="4:12">
+      <c r="D46" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E48" s="10">
-        <v>2</v>
-      </c>
-      <c r="F48" s="10">
-        <v>3</v>
-      </c>
-      <c r="J48" s="9" t="s">
+      <c r="E46" s="12">
+        <v>3</v>
+      </c>
+      <c r="F46" s="12">
+        <v>3</v>
+      </c>
+      <c r="J46" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="K48" s="10">
-        <v>0</v>
-      </c>
-      <c r="L48" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D49" s="9" t="s">
+      <c r="K46" s="12">
+        <v>0</v>
+      </c>
+      <c r="L46" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="4:12">
+      <c r="D47" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E49" s="10">
-        <v>2</v>
-      </c>
-      <c r="F49" s="10">
-        <v>2</v>
-      </c>
-      <c r="J49" s="9" t="s">
+      <c r="E47" s="12">
+        <v>2</v>
+      </c>
+      <c r="F47" s="12">
+        <v>0</v>
+      </c>
+      <c r="J47" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="K49" s="10">
-        <v>1</v>
-      </c>
-      <c r="L49" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D50" s="9" t="s">
+      <c r="K47" s="12">
+        <v>0</v>
+      </c>
+      <c r="L47" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="4:12">
+      <c r="D48" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E50" s="10">
-        <v>4</v>
-      </c>
-      <c r="F50" s="10">
-        <v>3</v>
-      </c>
-      <c r="J50" s="9" t="s">
+      <c r="E48" s="12">
+        <v>2</v>
+      </c>
+      <c r="F48" s="12">
+        <v>3</v>
+      </c>
+      <c r="J48" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="K50" s="10">
-        <v>0</v>
-      </c>
-      <c r="L50" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D51" s="9" t="s">
+      <c r="K48" s="12">
+        <v>0</v>
+      </c>
+      <c r="L48" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="4:12">
+      <c r="D49" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="E51" s="10">
+      <c r="E49" s="12">
+        <v>2</v>
+      </c>
+      <c r="F49" s="12">
+        <v>2</v>
+      </c>
+      <c r="J49" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="K49" s="12">
+        <v>1</v>
+      </c>
+      <c r="L49" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="4:12">
+      <c r="D50" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E50" s="12">
+        <v>4</v>
+      </c>
+      <c r="F50" s="12">
+        <v>3</v>
+      </c>
+      <c r="J50" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="K50" s="12">
+        <v>0</v>
+      </c>
+      <c r="L50" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="4:12">
+      <c r="D51" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E51" s="12">
         <v>5</v>
       </c>
-      <c r="F51" s="10">
-        <v>2</v>
-      </c>
-      <c r="J51" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="K51" s="10">
-        <v>0</v>
-      </c>
-      <c r="L51" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D52" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E52" s="10">
-        <v>2</v>
-      </c>
-      <c r="F52" s="10">
-        <v>3</v>
-      </c>
-      <c r="J52" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="K52" s="10">
-        <v>0</v>
-      </c>
-      <c r="L52" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D53" s="9" t="s">
+      <c r="F51" s="12">
+        <v>2</v>
+      </c>
+      <c r="J51" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E53" s="10">
-        <v>4</v>
-      </c>
-      <c r="F53" s="10">
-        <v>3</v>
-      </c>
-      <c r="J53" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="K53" s="10">
-        <v>0</v>
-      </c>
-      <c r="L53" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D54" s="9" t="s">
+      <c r="K51" s="12">
+        <v>0</v>
+      </c>
+      <c r="L51" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="4:12">
+      <c r="D52" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E54" s="10">
-        <v>2</v>
-      </c>
-      <c r="F54" s="10">
-        <v>3</v>
-      </c>
-      <c r="J54" s="9" t="s">
+      <c r="E52" s="12">
+        <v>2</v>
+      </c>
+      <c r="F52" s="12">
+        <v>3</v>
+      </c>
+      <c r="J52" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="K54" s="10">
-        <v>0</v>
-      </c>
-      <c r="L54" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="E55" s="7">
+      <c r="K52" s="12">
+        <v>0</v>
+      </c>
+      <c r="L52" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="4:12">
+      <c r="D53" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E53" s="12">
+        <v>4</v>
+      </c>
+      <c r="F53" s="12">
+        <v>3</v>
+      </c>
+      <c r="J53" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="K53" s="12">
+        <v>0</v>
+      </c>
+      <c r="L53" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="4:12">
+      <c r="D54" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E54" s="12">
+        <v>2</v>
+      </c>
+      <c r="F54" s="12">
+        <v>3</v>
+      </c>
+      <c r="J54" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="K54" s="12">
+        <v>0</v>
+      </c>
+      <c r="L54" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="5:12">
+      <c r="E55" s="4">
         <f>SUM(E5:E54)</f>
         <v>145</v>
       </c>
-      <c r="F55" s="7">
+      <c r="F55" s="4">
         <f>SUM(F5:F54)</f>
         <v>120</v>
       </c>
-      <c r="K55" s="7">
+      <c r="K55" s="4">
         <f>SUM(K5:K54)</f>
         <v>7</v>
       </c>
-      <c r="L55" s="7">
+      <c r="L55" s="4">
         <f>SUM(L5:L54)</f>
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="C1:L54"/>
   <sheetViews>
-    <sheetView zoomScale="63" workbookViewId="0">
+    <sheetView zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
       <selection activeCell="L3" sqref="L3:L53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.11111111111111" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="2" width="9.109375" style="6"/>
-    <col min="3" max="3" width="14" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5546875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="18.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="9.109375" style="6"/>
-    <col min="10" max="10" width="12" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18" style="6" customWidth="1"/>
-    <col min="12" max="12" width="17.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.109375" style="6"/>
+    <col min="1" max="2" width="9.11111111111111" style="3"/>
+    <col min="3" max="3" width="14" style="3" customWidth="1"/>
+    <col min="4" max="4" width="19.5555555555556" style="3" customWidth="1"/>
+    <col min="5" max="5" width="18.5555555555556" style="3" customWidth="1"/>
+    <col min="6" max="9" width="9.11111111111111" style="3"/>
+    <col min="10" max="10" width="12" style="3" customWidth="1"/>
+    <col min="11" max="11" width="18" style="3" customWidth="1"/>
+    <col min="12" max="12" width="17.6666666666667" style="3" customWidth="1"/>
+    <col min="13" max="16384" width="9.11111111111111" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="D1" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
-      <c r="D3" s="5">
-        <v>3</v>
-      </c>
-      <c r="E3" s="5">
-        <v>1</v>
-      </c>
-      <c r="J3" s="8">
-        <v>1</v>
-      </c>
-      <c r="K3" s="5">
-        <v>2</v>
-      </c>
-      <c r="L3" s="5" t="s">
+    <row r="1" spans="4:11">
+      <c r="D1" s="4" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="4" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C4" s="2">
-        <v>2</v>
-      </c>
-      <c r="D4" s="5">
-        <v>2</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="J4" s="8">
-        <v>2</v>
-      </c>
-      <c r="K4" s="5">
-        <v>3</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C5" s="2">
-        <v>3</v>
-      </c>
-      <c r="D5" s="5">
-        <v>3</v>
-      </c>
-      <c r="E5" s="5">
-        <v>1</v>
-      </c>
-      <c r="J5" s="8">
-        <v>3</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C6" s="2">
-        <v>4</v>
-      </c>
-      <c r="D6" s="5">
-        <v>4</v>
-      </c>
-      <c r="E6" s="5">
-        <v>1</v>
-      </c>
-      <c r="J6" s="8">
-        <v>4</v>
-      </c>
-      <c r="K6" s="5">
-        <v>3</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C7" s="2">
+      <c r="K1" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="3:12">
+      <c r="C2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="3:12">
+      <c r="C3" s="5">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8">
+        <v>3</v>
+      </c>
+      <c r="E3" s="8">
+        <v>1</v>
+      </c>
+      <c r="J3" s="9">
+        <v>1</v>
+      </c>
+      <c r="K3" s="8">
+        <v>2</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="3:12">
+      <c r="C4" s="5">
+        <v>2</v>
+      </c>
+      <c r="D4" s="8">
+        <v>2</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" s="9">
+        <v>2</v>
+      </c>
+      <c r="K4" s="8">
+        <v>3</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="3:12">
+      <c r="C5" s="5">
+        <v>3</v>
+      </c>
+      <c r="D5" s="8">
+        <v>3</v>
+      </c>
+      <c r="E5" s="8">
+        <v>1</v>
+      </c>
+      <c r="J5" s="9">
+        <v>3</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="3:12">
+      <c r="C6" s="5">
+        <v>4</v>
+      </c>
+      <c r="D6" s="8">
+        <v>4</v>
+      </c>
+      <c r="E6" s="8">
+        <v>1</v>
+      </c>
+      <c r="J6" s="9">
+        <v>4</v>
+      </c>
+      <c r="K6" s="8">
+        <v>3</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="3:12">
+      <c r="C7" s="5">
         <v>5</v>
       </c>
-      <c r="D7" s="5">
-        <v>2</v>
-      </c>
-      <c r="E7" s="5">
-        <v>1</v>
-      </c>
-      <c r="J7" s="8">
+      <c r="D7" s="8">
+        <v>2</v>
+      </c>
+      <c r="E7" s="8">
+        <v>1</v>
+      </c>
+      <c r="J7" s="9">
         <v>5</v>
       </c>
-      <c r="K7" s="5">
-        <v>3</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C8" s="2">
+      <c r="K7" s="8">
+        <v>3</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="3:12">
+      <c r="C8" s="5">
         <v>6</v>
       </c>
-      <c r="D8" s="5">
-        <v>4</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="J8" s="8">
+      <c r="D8" s="8">
+        <v>4</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="J8" s="9">
         <v>6</v>
       </c>
-      <c r="K8" s="5">
-        <v>2</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C9" s="2">
+      <c r="K8" s="8">
+        <v>2</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="3:12">
+      <c r="C9" s="5">
         <v>7</v>
       </c>
-      <c r="D9" s="5">
-        <v>3</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="J9" s="8">
+      <c r="D9" s="8">
+        <v>3</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="J9" s="9">
         <v>7</v>
       </c>
-      <c r="K9" s="5">
-        <v>4</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C10" s="2">
+      <c r="K9" s="8">
+        <v>4</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="3:12">
+      <c r="C10" s="5">
         <v>8</v>
       </c>
-      <c r="D10" s="5">
-        <v>3</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="J10" s="8">
+      <c r="D10" s="8">
+        <v>3</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="J10" s="9">
         <v>8</v>
       </c>
-      <c r="K10" s="5">
-        <v>2</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C11" s="2">
+      <c r="K10" s="8">
+        <v>2</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="3:12">
+      <c r="C11" s="5">
         <v>9</v>
       </c>
-      <c r="D11" s="5">
-        <v>3</v>
-      </c>
-      <c r="E11" s="5">
-        <v>1</v>
-      </c>
-      <c r="J11" s="8">
+      <c r="D11" s="8">
+        <v>3</v>
+      </c>
+      <c r="E11" s="8">
+        <v>1</v>
+      </c>
+      <c r="J11" s="9">
         <v>9</v>
       </c>
-      <c r="K11" s="5">
-        <v>3</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C12" s="2">
+      <c r="K11" s="8">
+        <v>3</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="3:12">
+      <c r="C12" s="5">
         <v>10</v>
       </c>
-      <c r="D12" s="5">
-        <v>4</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="J12" s="8">
+      <c r="D12" s="8">
+        <v>4</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="J12" s="9">
         <v>10</v>
       </c>
-      <c r="K12" s="5">
-        <v>2</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C13" s="2">
+      <c r="K12" s="8">
+        <v>2</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="3:12">
+      <c r="C13" s="5">
         <v>11</v>
       </c>
-      <c r="D13" s="5">
-        <v>4</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="J13" s="8">
+      <c r="D13" s="8">
+        <v>4</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="J13" s="9">
         <v>11</v>
       </c>
-      <c r="K13" s="5">
-        <v>4</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C14" s="2">
+      <c r="K13" s="8">
+        <v>4</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="3:12">
+      <c r="C14" s="5">
         <v>12</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="8">
         <v>5</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="J14" s="8">
+      <c r="E14" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="J14" s="9">
         <v>12</v>
       </c>
-      <c r="K14" s="5">
-        <v>1</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C15" s="2">
+      <c r="K14" s="8">
+        <v>1</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="3:12">
+      <c r="C15" s="5">
         <v>13</v>
       </c>
-      <c r="D15" s="5">
-        <v>4</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="J15" s="8">
+      <c r="D15" s="8">
+        <v>4</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="J15" s="9">
         <v>13</v>
       </c>
-      <c r="K15" s="5">
-        <v>2</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C16" s="2">
+      <c r="K15" s="8">
+        <v>2</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="3:12">
+      <c r="C16" s="5">
         <v>14</v>
       </c>
-      <c r="D16" s="5">
-        <v>3</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="J16" s="8">
+      <c r="D16" s="8">
+        <v>3</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="J16" s="9">
         <v>14</v>
       </c>
-      <c r="K16" s="5">
-        <v>1</v>
-      </c>
-      <c r="L16" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C17" s="2">
+      <c r="K16" s="8">
+        <v>1</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="3:12">
+      <c r="C17" s="5">
         <v>15</v>
       </c>
-      <c r="D17" s="5">
-        <v>4</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="J17" s="8">
+      <c r="D17" s="8">
+        <v>4</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="J17" s="9">
         <v>15</v>
       </c>
-      <c r="K17" s="5">
-        <v>2</v>
-      </c>
-      <c r="L17" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C18" s="2">
+      <c r="K17" s="8">
+        <v>2</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12">
+      <c r="C18" s="5">
         <v>16</v>
       </c>
-      <c r="D18" s="5">
-        <v>2</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="J18" s="8">
+      <c r="D18" s="8">
+        <v>2</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="J18" s="9">
         <v>16</v>
       </c>
-      <c r="K18" s="5">
-        <v>2</v>
-      </c>
-      <c r="L18" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C19" s="2">
+      <c r="K18" s="8">
+        <v>2</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12">
+      <c r="C19" s="5">
         <v>17</v>
       </c>
-      <c r="D19" s="5">
-        <v>4</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="J19" s="8">
+      <c r="D19" s="8">
+        <v>4</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="J19" s="9">
         <v>17</v>
       </c>
-      <c r="K19" s="5">
-        <v>4</v>
-      </c>
-      <c r="L19" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C20" s="2">
+      <c r="K19" s="8">
+        <v>4</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="3:12">
+      <c r="C20" s="5">
         <v>18</v>
       </c>
-      <c r="D20" s="5">
-        <v>3</v>
-      </c>
-      <c r="E20" s="5">
-        <v>1</v>
-      </c>
-      <c r="J20" s="8">
+      <c r="D20" s="8">
+        <v>3</v>
+      </c>
+      <c r="E20" s="8">
+        <v>1</v>
+      </c>
+      <c r="J20" s="9">
         <v>18</v>
       </c>
-      <c r="K20" s="5">
-        <v>2</v>
-      </c>
-      <c r="L20" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C21" s="2">
+      <c r="K20" s="8">
+        <v>2</v>
+      </c>
+      <c r="L20" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12">
+      <c r="C21" s="5">
         <v>19</v>
       </c>
-      <c r="D21" s="5">
-        <v>4</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="J21" s="8">
+      <c r="D21" s="8">
+        <v>4</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="J21" s="9">
         <v>19</v>
       </c>
-      <c r="K21" s="5">
-        <v>2</v>
-      </c>
-      <c r="L21" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C22" s="2">
+      <c r="K21" s="8">
+        <v>2</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12">
+      <c r="C22" s="5">
         <v>20</v>
       </c>
-      <c r="D22" s="5">
-        <v>3</v>
-      </c>
-      <c r="E22" s="5">
-        <v>1</v>
-      </c>
-      <c r="J22" s="8">
+      <c r="D22" s="8">
+        <v>3</v>
+      </c>
+      <c r="E22" s="8">
+        <v>1</v>
+      </c>
+      <c r="J22" s="9">
         <v>20</v>
       </c>
-      <c r="K22" s="5">
-        <v>1</v>
-      </c>
-      <c r="L22" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C23" s="2">
+      <c r="K22" s="8">
+        <v>1</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12">
+      <c r="C23" s="5">
         <v>21</v>
       </c>
-      <c r="D23" s="5">
-        <v>1</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="J23" s="8">
+      <c r="D23" s="8">
+        <v>1</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="J23" s="9">
         <v>21</v>
       </c>
-      <c r="K23" s="5">
-        <v>3</v>
-      </c>
-      <c r="L23" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C24" s="2">
+      <c r="K23" s="8">
+        <v>3</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12">
+      <c r="C24" s="5">
         <v>22</v>
       </c>
-      <c r="D24" s="5">
-        <v>3</v>
-      </c>
-      <c r="E24" s="5">
-        <v>3</v>
-      </c>
-      <c r="J24" s="8">
+      <c r="D24" s="8">
+        <v>3</v>
+      </c>
+      <c r="E24" s="8">
+        <v>3</v>
+      </c>
+      <c r="J24" s="9">
         <v>22</v>
       </c>
-      <c r="K24" s="5">
-        <v>1</v>
-      </c>
-      <c r="L24" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C25" s="2">
+      <c r="K24" s="8">
+        <v>1</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12">
+      <c r="C25" s="5">
         <v>23</v>
       </c>
-      <c r="D25" s="5">
-        <v>2</v>
-      </c>
-      <c r="E25" s="5">
-        <v>1</v>
-      </c>
-      <c r="J25" s="8">
+      <c r="D25" s="8">
+        <v>2</v>
+      </c>
+      <c r="E25" s="8">
+        <v>1</v>
+      </c>
+      <c r="J25" s="9">
         <v>23</v>
       </c>
-      <c r="K25" s="5">
-        <v>4</v>
-      </c>
-      <c r="L25" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C26" s="2">
+      <c r="K25" s="8">
+        <v>4</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12">
+      <c r="C26" s="5">
         <v>24</v>
       </c>
-      <c r="D26" s="5">
-        <v>4</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="J26" s="8">
+      <c r="D26" s="8">
+        <v>4</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="J26" s="9">
         <v>24</v>
       </c>
-      <c r="K26" s="5">
-        <v>2</v>
-      </c>
-      <c r="L26" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C27" s="2">
+      <c r="K26" s="8">
+        <v>2</v>
+      </c>
+      <c r="L26" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12">
+      <c r="C27" s="5">
         <v>25</v>
       </c>
-      <c r="D27" s="5">
-        <v>3</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="J27" s="8">
+      <c r="D27" s="8">
+        <v>3</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="J27" s="9">
         <v>25</v>
       </c>
-      <c r="K27" s="5">
-        <v>4</v>
-      </c>
-      <c r="L27" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C28" s="2">
+      <c r="K27" s="8">
+        <v>4</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12">
+      <c r="C28" s="5">
         <v>26</v>
       </c>
-      <c r="D28" s="5">
-        <v>4</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="J28" s="8">
+      <c r="D28" s="8">
+        <v>4</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="J28" s="9">
         <v>26</v>
       </c>
-      <c r="K28" s="5">
-        <v>4</v>
-      </c>
-      <c r="L28" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C29" s="2">
+      <c r="K28" s="8">
+        <v>4</v>
+      </c>
+      <c r="L28" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12">
+      <c r="C29" s="5">
         <v>27</v>
       </c>
-      <c r="D29" s="5">
-        <v>3</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="J29" s="8">
+      <c r="D29" s="8">
+        <v>3</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="J29" s="9">
         <v>27</v>
       </c>
-      <c r="K29" s="5">
-        <v>3</v>
-      </c>
-      <c r="L29" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C30" s="2">
+      <c r="K29" s="8">
+        <v>3</v>
+      </c>
+      <c r="L29" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12">
+      <c r="C30" s="5">
         <v>28</v>
       </c>
-      <c r="D30" s="5">
-        <v>4</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="J30" s="8">
+      <c r="D30" s="8">
+        <v>4</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="J30" s="9">
         <v>28</v>
       </c>
-      <c r="K30" s="5">
-        <v>3</v>
-      </c>
-      <c r="L30" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C31" s="2">
+      <c r="K30" s="8">
+        <v>3</v>
+      </c>
+      <c r="L30" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12">
+      <c r="C31" s="5">
         <v>29</v>
       </c>
-      <c r="D31" s="5">
-        <v>3</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="J31" s="8">
+      <c r="D31" s="8">
+        <v>3</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="J31" s="9">
         <v>29</v>
       </c>
-      <c r="K31" s="5">
-        <v>3</v>
-      </c>
-      <c r="L31" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C32" s="2">
+      <c r="K31" s="8">
+        <v>3</v>
+      </c>
+      <c r="L31" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12">
+      <c r="C32" s="5">
         <v>30</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="8">
         <v>5</v>
       </c>
-      <c r="E32" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="J32" s="8">
+      <c r="E32" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="J32" s="9">
         <v>30</v>
       </c>
-      <c r="K32" s="5">
-        <v>2</v>
-      </c>
-      <c r="L32" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C33" s="2">
+      <c r="K32" s="8">
+        <v>2</v>
+      </c>
+      <c r="L32" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="3:12">
+      <c r="C33" s="5">
         <v>31</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="8">
         <v>5</v>
       </c>
-      <c r="E33" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="J33" s="8">
+      <c r="E33" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="J33" s="9">
         <v>31</v>
       </c>
-      <c r="K33" s="5">
-        <v>4</v>
-      </c>
-      <c r="L33" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C34" s="2">
+      <c r="K33" s="8">
+        <v>4</v>
+      </c>
+      <c r="L33" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="3:12">
+      <c r="C34" s="5">
         <v>32</v>
       </c>
-      <c r="D34" s="5">
-        <v>3</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="J34" s="8">
+      <c r="D34" s="8">
+        <v>3</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="J34" s="9">
         <v>32</v>
       </c>
-      <c r="K34" s="5">
-        <v>4</v>
-      </c>
-      <c r="L34" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="35" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C35" s="2">
+      <c r="K34" s="8">
+        <v>4</v>
+      </c>
+      <c r="L34" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="3:12">
+      <c r="C35" s="5">
         <v>33</v>
       </c>
-      <c r="D35" s="5">
-        <v>4</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="J35" s="8">
+      <c r="D35" s="8">
+        <v>4</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="J35" s="9">
         <v>33</v>
       </c>
-      <c r="K35" s="5">
-        <v>3</v>
-      </c>
-      <c r="L35" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C36" s="2">
+      <c r="K35" s="8">
+        <v>3</v>
+      </c>
+      <c r="L35" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="3:12">
+      <c r="C36" s="5">
         <v>34</v>
       </c>
-      <c r="D36" s="5">
-        <v>4</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="J36" s="8">
+      <c r="D36" s="8">
+        <v>4</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="J36" s="9">
         <v>34</v>
       </c>
-      <c r="K36" s="5">
-        <v>4</v>
-      </c>
-      <c r="L36" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="37" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C37" s="2">
+      <c r="K36" s="8">
+        <v>4</v>
+      </c>
+      <c r="L36" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="3:12">
+      <c r="C37" s="5">
         <v>35</v>
       </c>
-      <c r="D37" s="5">
-        <v>3</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="J37" s="8">
+      <c r="D37" s="8">
+        <v>3</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="J37" s="9">
         <v>35</v>
       </c>
-      <c r="K37" s="5">
+      <c r="K37" s="8">
         <v>5</v>
       </c>
-      <c r="L37" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="38" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C38" s="2">
+      <c r="L37" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="3:12">
+      <c r="C38" s="5">
         <v>36</v>
       </c>
-      <c r="D38" s="5">
-        <v>1</v>
-      </c>
-      <c r="E38" s="5">
-        <v>2</v>
-      </c>
-      <c r="J38" s="8">
+      <c r="D38" s="8">
+        <v>1</v>
+      </c>
+      <c r="E38" s="8">
+        <v>2</v>
+      </c>
+      <c r="J38" s="9">
         <v>36</v>
       </c>
-      <c r="K38" s="5">
-        <v>3</v>
-      </c>
-      <c r="L38" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="39" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C39" s="2">
+      <c r="K38" s="8">
+        <v>3</v>
+      </c>
+      <c r="L38" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="3:12">
+      <c r="C39" s="5">
         <v>37</v>
       </c>
-      <c r="D39" s="5">
-        <v>2</v>
-      </c>
-      <c r="E39" s="5">
-        <v>1</v>
-      </c>
-      <c r="J39" s="8">
+      <c r="D39" s="8">
+        <v>2</v>
+      </c>
+      <c r="E39" s="8">
+        <v>1</v>
+      </c>
+      <c r="J39" s="9">
         <v>37</v>
       </c>
-      <c r="K39" s="5">
+      <c r="K39" s="8">
         <v>6</v>
       </c>
-      <c r="L39" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="40" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C40" s="2">
+      <c r="L39" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="3:12">
+      <c r="C40" s="5">
         <v>38</v>
       </c>
-      <c r="D40" s="5">
-        <v>3</v>
-      </c>
-      <c r="E40" s="5">
-        <v>1</v>
-      </c>
-      <c r="J40" s="8">
+      <c r="D40" s="8">
+        <v>3</v>
+      </c>
+      <c r="E40" s="8">
+        <v>1</v>
+      </c>
+      <c r="J40" s="9">
         <v>38</v>
       </c>
-      <c r="K40" s="5">
-        <v>4</v>
-      </c>
-      <c r="L40" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C41" s="2">
+      <c r="K40" s="8">
+        <v>4</v>
+      </c>
+      <c r="L40" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="3:12">
+      <c r="C41" s="5">
         <v>39</v>
       </c>
-      <c r="D41" s="5">
-        <v>4</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="J41" s="8">
+      <c r="D41" s="8">
+        <v>4</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="J41" s="9">
         <v>39</v>
       </c>
-      <c r="K41" s="5">
-        <v>3</v>
-      </c>
-      <c r="L41" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C42" s="2">
+      <c r="K41" s="8">
+        <v>3</v>
+      </c>
+      <c r="L41" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="3:12">
+      <c r="C42" s="5">
         <v>40</v>
       </c>
-      <c r="D42" s="5">
-        <v>1</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="J42" s="8">
+      <c r="D42" s="8">
+        <v>1</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="J42" s="9">
         <v>40</v>
       </c>
-      <c r="K42" s="5">
-        <v>2</v>
-      </c>
-      <c r="L42" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C43" s="2">
+      <c r="K42" s="8">
+        <v>2</v>
+      </c>
+      <c r="L42" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="3:12">
+      <c r="C43" s="5">
         <v>41</v>
       </c>
-      <c r="D43" s="5">
-        <v>4</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="J43" s="8">
+      <c r="D43" s="8">
+        <v>4</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="J43" s="9">
         <v>41</v>
       </c>
-      <c r="K43" s="5">
-        <v>3</v>
-      </c>
-      <c r="L43" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C44" s="2">
+      <c r="K43" s="8">
+        <v>3</v>
+      </c>
+      <c r="L43" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="3:12">
+      <c r="C44" s="5">
         <v>42</v>
       </c>
-      <c r="D44" s="5">
-        <v>1</v>
-      </c>
-      <c r="E44" s="5">
-        <v>2</v>
-      </c>
-      <c r="J44" s="8">
+      <c r="D44" s="8">
+        <v>1</v>
+      </c>
+      <c r="E44" s="8">
+        <v>2</v>
+      </c>
+      <c r="J44" s="9">
         <v>42</v>
       </c>
-      <c r="K44" s="5">
-        <v>3</v>
-      </c>
-      <c r="L44" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="45" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C45" s="2">
+      <c r="K44" s="8">
+        <v>3</v>
+      </c>
+      <c r="L44" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="3:12">
+      <c r="C45" s="5">
         <v>43</v>
       </c>
-      <c r="D45" s="5">
-        <v>3</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="J45" s="8">
+      <c r="D45" s="8">
+        <v>3</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="J45" s="9">
         <v>43</v>
       </c>
-      <c r="K45" s="5">
-        <v>4</v>
-      </c>
-      <c r="L45" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="46" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C46" s="2">
+      <c r="K45" s="8">
+        <v>4</v>
+      </c>
+      <c r="L45" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" spans="3:12">
+      <c r="C46" s="5">
         <v>44</v>
       </c>
-      <c r="D46" s="5">
-        <v>3</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="J46" s="8">
+      <c r="D46" s="8">
+        <v>3</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="J46" s="9">
         <v>44</v>
       </c>
-      <c r="K46" s="5">
-        <v>3</v>
-      </c>
-      <c r="L46" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="47" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C47" s="2">
+      <c r="K46" s="8">
+        <v>3</v>
+      </c>
+      <c r="L46" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="47" spans="3:12">
+      <c r="C47" s="5">
         <v>45</v>
       </c>
-      <c r="D47" s="5">
-        <v>2</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="J47" s="8">
+      <c r="D47" s="8">
+        <v>2</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="J47" s="9">
         <v>45</v>
       </c>
-      <c r="K47" s="5">
-        <v>3</v>
-      </c>
-      <c r="L47" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="48" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C48" s="2">
+      <c r="K47" s="8">
+        <v>3</v>
+      </c>
+      <c r="L47" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="3:12">
+      <c r="C48" s="5">
         <v>46</v>
       </c>
-      <c r="D48" s="5">
-        <v>3</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="J48" s="8">
+      <c r="D48" s="8">
+        <v>3</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="J48" s="9">
         <v>46</v>
       </c>
-      <c r="K48" s="5">
-        <v>3</v>
-      </c>
-      <c r="L48" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C49" s="2">
+      <c r="K48" s="8">
+        <v>3</v>
+      </c>
+      <c r="L48" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12">
+      <c r="C49" s="5">
         <v>47</v>
       </c>
-      <c r="D49" s="5">
-        <v>2</v>
-      </c>
-      <c r="E49" s="5">
-        <v>1</v>
-      </c>
-      <c r="J49" s="8">
+      <c r="D49" s="8">
+        <v>2</v>
+      </c>
+      <c r="E49" s="8">
+        <v>1</v>
+      </c>
+      <c r="J49" s="9">
         <v>47</v>
       </c>
-      <c r="K49" s="5">
-        <v>3</v>
-      </c>
-      <c r="L49" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C50" s="2">
+      <c r="K49" s="8">
+        <v>3</v>
+      </c>
+      <c r="L49" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12">
+      <c r="C50" s="5">
         <v>48</v>
       </c>
-      <c r="D50" s="5">
-        <v>4</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="J50" s="8">
+      <c r="D50" s="8">
+        <v>4</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="J50" s="9">
         <v>48</v>
       </c>
-      <c r="K50" s="5">
-        <v>3</v>
-      </c>
-      <c r="L50" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C51" s="2">
+      <c r="K50" s="8">
+        <v>3</v>
+      </c>
+      <c r="L50" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12">
+      <c r="C51" s="5">
         <v>49</v>
       </c>
-      <c r="D51" s="5">
-        <v>3</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="J51" s="8">
+      <c r="D51" s="8">
+        <v>3</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="J51" s="9">
         <v>49</v>
       </c>
-      <c r="K51" s="5">
-        <v>3</v>
-      </c>
-      <c r="L51" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C52" s="2">
+      <c r="K51" s="8">
+        <v>3</v>
+      </c>
+      <c r="L51" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12">
+      <c r="C52" s="5">
         <v>50</v>
       </c>
-      <c r="D52" s="5">
-        <v>2</v>
-      </c>
-      <c r="E52" s="5">
-        <v>1</v>
-      </c>
-      <c r="J52" s="8">
+      <c r="D52" s="8">
+        <v>2</v>
+      </c>
+      <c r="E52" s="8">
+        <v>1</v>
+      </c>
+      <c r="J52" s="9">
         <v>50</v>
       </c>
-      <c r="K52" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="L52" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="D53" s="7">
+      <c r="K52" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="L52" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="53" spans="4:12">
+      <c r="D53" s="4">
         <f>SUM(D3:D52)</f>
         <v>156</v>
       </c>
-      <c r="E53" s="7">
+      <c r="E53" s="4">
         <f>SUM(E3:E52)</f>
         <v>19</v>
       </c>
-      <c r="J53" s="8">
+      <c r="J53" s="9">
         <v>51</v>
       </c>
-      <c r="K53" s="5">
-        <v>2</v>
-      </c>
-      <c r="L53" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="K54" s="7">
+      <c r="K53" s="8">
+        <v>2</v>
+      </c>
+      <c r="L53" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="54" spans="11:11">
+      <c r="K54" s="4">
         <f>SUM(K3:K53)</f>
         <v>142</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="14.109375" customWidth="1"/>
+    <col min="1" max="1" width="14.1111111111111" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B1" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="D1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C2">
         <v>4</v>
@@ -4043,12 +4980,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -4057,12 +4994,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -4071,12 +5008,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -4085,12 +5022,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -4099,12 +5036,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -4113,12 +5050,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -4127,12 +5064,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -4141,12 +5078,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -4155,12 +5092,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -4169,12 +5106,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B12" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -4183,12 +5120,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C13">
         <v>6</v>
@@ -4197,12 +5134,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C14">
         <v>4</v>
@@ -4211,12 +5148,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C15">
         <v>2</v>
@@ -4225,12 +5162,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -4239,12 +5176,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -4253,12 +5190,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C18">
         <v>3</v>
@@ -4267,12 +5204,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C19">
         <v>5</v>
@@ -4281,12 +5218,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C20">
         <v>3</v>
@@ -4295,12 +5232,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C21">
         <v>4</v>
@@ -4309,12 +5246,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C22">
         <v>3</v>
@@ -4323,12 +5260,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B23" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C23">
         <v>2</v>
@@ -4337,12 +5274,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B24" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C24">
         <v>4</v>
@@ -4351,12 +5288,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B25" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -4365,12 +5302,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B26" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -4379,12 +5316,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B27" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C27">
         <v>2</v>
@@ -4393,12 +5330,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B28" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C28">
         <v>4</v>
@@ -4407,12 +5344,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B29" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C29">
         <v>4</v>
@@ -4421,12 +5358,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B30" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C30">
         <v>2</v>
@@ -4435,12 +5372,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -4449,12 +5386,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C32">
         <v>4</v>
@@ -4463,12 +5400,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B33" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -4477,12 +5414,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B34" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C34">
         <v>4</v>
@@ -4491,12 +5428,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B35" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C35">
         <v>3</v>
@@ -4505,12 +5442,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B36" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C36">
         <v>3</v>
@@ -4519,12 +5456,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B37" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C37">
         <v>3</v>
@@ -4533,12 +5470,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B38" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C38">
         <v>3</v>
@@ -4547,12 +5484,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B39" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C39">
         <v>3</v>
@@ -4561,12 +5498,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B40" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C40">
         <v>5</v>
@@ -4575,12 +5512,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B41" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C41">
         <v>3</v>
@@ -4589,12 +5526,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B42" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C42">
         <v>5</v>
@@ -4603,12 +5540,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B43" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C43">
         <v>3</v>
@@ -4617,12 +5554,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B44" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C44">
         <v>2</v>
@@ -4631,12 +5568,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B45" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C45">
         <v>2</v>
@@ -4645,12 +5582,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B46" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C46">
         <v>2</v>
@@ -4659,12 +5596,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B47" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C47">
         <v>4</v>
@@ -4673,12 +5610,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B48" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C48">
         <v>5</v>
@@ -4687,12 +5624,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B49" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C49">
         <v>2</v>
@@ -4701,12 +5638,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B50" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C50">
         <v>4</v>
@@ -4715,12 +5652,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B51" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C51">
         <v>2</v>
@@ -4729,12 +5666,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B52" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C52">
         <v>3</v>
@@ -4743,12 +5680,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B53" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C53">
         <v>3</v>
@@ -4757,12 +5694,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B54" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -4771,12 +5708,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B55" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C55">
         <v>3</v>
@@ -4785,12 +5722,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B56" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C56">
         <v>3</v>
@@ -4799,12 +5736,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B57" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C57">
         <v>2</v>
@@ -4813,12 +5750,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B58" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C58">
         <v>2</v>
@@ -4827,12 +5764,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B59" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -4841,12 +5778,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B60" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C60">
         <v>2</v>
@@ -4855,12 +5792,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B61" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C61">
         <v>3</v>
@@ -4869,12 +5806,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B62" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C62">
         <v>3</v>
@@ -4883,12 +5820,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B63" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C63">
         <v>3</v>
@@ -4897,12 +5834,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C64">
         <v>2</v>
@@ -4911,12 +5848,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B65" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -4925,12 +5862,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C66">
         <v>2</v>
@@ -4939,12 +5876,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C67">
         <v>2</v>
@@ -4953,12 +5890,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C68">
         <v>3</v>
@@ -4967,12 +5904,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C69">
         <v>2</v>
@@ -4981,12 +5918,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B70" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C70">
         <v>4</v>
@@ -4995,12 +5932,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B71" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C71">
         <v>3</v>
@@ -5009,12 +5946,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B72" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -5023,12 +5960,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B73" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C73">
         <v>3</v>
@@ -5037,12 +5974,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B74" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C74">
         <v>3</v>
@@ -5051,12 +5988,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B75" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C75">
         <v>2</v>
@@ -5065,12 +6002,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B76" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -5079,12 +6016,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B77" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -5093,12 +6030,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B78" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C78">
         <v>4</v>
@@ -5107,12 +6044,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B79" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C79">
         <v>5</v>
@@ -5121,12 +6058,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B80" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C80">
         <v>2</v>
@@ -5135,12 +6072,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B81" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -5149,12 +6086,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B82" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C82">
         <v>4</v>
@@ -5163,12 +6100,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B83" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C83">
         <v>3</v>
@@ -5177,12 +6114,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B84" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C84">
         <v>2</v>
@@ -5191,12 +6128,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B85" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C85">
         <v>3</v>
@@ -5205,12 +6142,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B86" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C86">
         <v>3</v>
@@ -5219,12 +6156,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B87" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C87">
         <v>3</v>
@@ -5233,12 +6170,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B88" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C88">
         <v>2</v>
@@ -5247,12 +6184,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B89" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C89">
         <v>4</v>
@@ -5261,12 +6198,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B90" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C90">
         <v>2</v>
@@ -5275,12 +6212,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B91" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C91">
         <v>3</v>
@@ -5289,12 +6226,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B92" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -5303,12 +6240,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B93" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C93">
         <v>3</v>
@@ -5317,12 +6254,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B94" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -5331,12 +6268,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B95" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C95">
         <v>3</v>
@@ -5345,12 +6282,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B96" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C96">
         <v>2</v>
@@ -5359,12 +6296,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B97" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C97">
         <v>3</v>
@@ -5373,12 +6310,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B98" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C98">
         <v>2</v>
@@ -5387,12 +6324,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B99" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C99">
         <v>3</v>
@@ -5401,12 +6338,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B100" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C100">
         <v>3</v>
@@ -5415,12 +6352,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B101" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C101">
         <v>3</v>
@@ -5429,12 +6366,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B102" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C102">
         <v>3</v>
@@ -5443,12 +6380,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B103" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C103">
         <v>2</v>
@@ -5457,12 +6394,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B104" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C104">
         <v>3</v>
@@ -5471,12 +6408,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B105" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C105">
         <v>4</v>
@@ -5485,12 +6422,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B106" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C106">
         <v>2</v>
@@ -5499,12 +6436,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B107" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C107">
         <v>4</v>
@@ -5513,12 +6450,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B108" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C108">
         <v>3</v>
@@ -5527,12 +6464,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B109" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C109">
         <v>3</v>
@@ -5541,12 +6478,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B110" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C110">
         <v>3</v>
@@ -5555,12 +6492,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B111" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C111">
         <v>4</v>
@@ -5569,12 +6506,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B112" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C112">
         <v>4</v>
@@ -5583,12 +6520,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B113" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C113">
         <v>5</v>
@@ -5597,12 +6534,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B114" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C114">
         <v>4</v>
@@ -5611,12 +6548,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B115" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C115">
         <v>3</v>
@@ -5625,12 +6562,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B116" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C116">
         <v>4</v>
@@ -5639,12 +6576,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B117" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C117">
         <v>2</v>
@@ -5653,12 +6590,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B118" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C118">
         <v>4</v>
@@ -5667,12 +6604,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B119" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C119">
         <v>3</v>
@@ -5681,12 +6618,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4">
       <c r="A120" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B120" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C120">
         <v>4</v>
@@ -5695,12 +6632,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B121" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C121">
         <v>3</v>
@@ -5709,12 +6646,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B122" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -5723,12 +6660,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B123" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C123">
         <v>3</v>
@@ -5737,12 +6674,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4">
       <c r="A124" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B124" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C124">
         <v>2</v>
@@ -5751,12 +6688,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4">
       <c r="A125" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B125" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C125">
         <v>4</v>
@@ -5765,12 +6702,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4">
       <c r="A126" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B126" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C126">
         <v>3</v>
@@ -5779,12 +6716,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4">
       <c r="A127" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B127" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C127">
         <v>4</v>
@@ -5793,12 +6730,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B128" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C128">
         <v>3</v>
@@ -5807,12 +6744,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4">
       <c r="A129" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B129" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C129">
         <v>4</v>
@@ -5821,12 +6758,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B130" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C130">
         <v>3</v>
@@ -5835,12 +6772,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4">
       <c r="A131" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B131" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C131">
         <v>5</v>
@@ -5849,12 +6786,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4">
       <c r="A132" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B132" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C132">
         <v>5</v>
@@ -5863,12 +6800,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4">
       <c r="A133" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B133" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C133">
         <v>3</v>
@@ -5877,12 +6814,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4">
       <c r="A134" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B134" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C134">
         <v>4</v>
@@ -5891,12 +6828,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4">
       <c r="A135" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B135" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C135">
         <v>4</v>
@@ -5905,12 +6842,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4">
       <c r="A136" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B136" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C136">
         <v>3</v>
@@ -5919,12 +6856,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4">
       <c r="A137" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B137" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C137">
         <v>1</v>
@@ -5933,12 +6870,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4">
       <c r="A138" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B138" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C138">
         <v>2</v>
@@ -5947,12 +6884,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4">
       <c r="A139" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B139" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C139">
         <v>3</v>
@@ -5961,12 +6898,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4">
       <c r="A140" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B140" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C140">
         <v>4</v>
@@ -5975,12 +6912,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4">
       <c r="A141" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B141" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C141">
         <v>1</v>
@@ -5989,12 +6926,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4">
       <c r="A142" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B142" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C142">
         <v>4</v>
@@ -6003,12 +6940,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4">
       <c r="A143" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B143" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C143">
         <v>1</v>
@@ -6017,12 +6954,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4">
       <c r="A144" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B144" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C144">
         <v>3</v>
@@ -6031,12 +6968,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4">
       <c r="A145" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B145" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C145">
         <v>3</v>
@@ -6045,12 +6982,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4">
       <c r="A146" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B146" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C146">
         <v>2</v>
@@ -6059,12 +6996,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4">
       <c r="A147" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B147" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C147">
         <v>3</v>
@@ -6073,12 +7010,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4">
       <c r="A148" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B148" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C148">
         <v>2</v>
@@ -6087,12 +7024,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4">
       <c r="A149" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B149" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C149">
         <v>4</v>
@@ -6101,12 +7038,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4">
       <c r="A150" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B150" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C150">
         <v>3</v>
@@ -6115,12 +7052,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4">
       <c r="A151" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B151" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C151">
         <v>2</v>
@@ -6129,12 +7066,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4">
       <c r="A152" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B152" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C152">
         <v>2</v>
@@ -6143,12 +7080,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4">
       <c r="A153" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B153" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C153">
         <v>3</v>
@@ -6157,12 +7094,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4">
       <c r="A154" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B154" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C154">
         <v>0</v>
@@ -6171,12 +7108,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4">
       <c r="A155" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B155" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C155">
         <v>3</v>
@@ -6185,12 +7122,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4">
       <c r="A156" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B156" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C156">
         <v>3</v>
@@ -6199,12 +7136,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4">
       <c r="A157" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B157" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C157">
         <v>2</v>
@@ -6213,12 +7150,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4">
       <c r="A158" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B158" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C158">
         <v>4</v>
@@ -6227,12 +7164,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4">
       <c r="A159" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B159" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C159">
         <v>2</v>
@@ -6241,12 +7178,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4">
       <c r="A160" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B160" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C160">
         <v>3</v>
@@ -6255,12 +7192,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4">
       <c r="A161" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B161" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C161">
         <v>2</v>
@@ -6269,12 +7206,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4">
       <c r="A162" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B162" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C162">
         <v>4</v>
@@ -6283,12 +7220,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4">
       <c r="A163" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B163" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C163">
         <v>1</v>
@@ -6297,12 +7234,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4">
       <c r="A164" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B164" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C164">
         <v>2</v>
@@ -6311,12 +7248,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4">
       <c r="A165" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B165" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C165">
         <v>1</v>
@@ -6325,12 +7262,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4">
       <c r="A166" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B166" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C166">
         <v>2</v>
@@ -6339,12 +7276,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4">
       <c r="A167" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B167" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C167">
         <v>2</v>
@@ -6353,12 +7290,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4">
       <c r="A168" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B168" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C168">
         <v>4</v>
@@ -6367,12 +7304,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4">
       <c r="A169" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B169" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C169">
         <v>2</v>
@@ -6381,12 +7318,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4">
       <c r="A170" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B170" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C170">
         <v>2</v>
@@ -6395,12 +7332,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4">
       <c r="A171" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B171" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C171">
         <v>1</v>
@@ -6409,12 +7346,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4">
       <c r="A172" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B172" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C172">
         <v>3</v>
@@ -6423,12 +7360,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4">
       <c r="A173" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B173" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C173">
         <v>1</v>
@@ -6437,12 +7374,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4">
       <c r="A174" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B174" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C174">
         <v>4</v>
@@ -6451,12 +7388,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4">
       <c r="A175" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B175" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C175">
         <v>2</v>
@@ -6465,12 +7402,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4">
       <c r="A176" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B176" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C176">
         <v>4</v>
@@ -6479,12 +7416,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4">
       <c r="A177" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B177" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C177">
         <v>4</v>
@@ -6493,12 +7430,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4">
       <c r="A178" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B178" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C178">
         <v>3</v>
@@ -6507,12 +7444,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4">
       <c r="A179" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B179" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C179">
         <v>3</v>
@@ -6521,12 +7458,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4">
       <c r="A180" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B180" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C180">
         <v>3</v>
@@ -6535,12 +7472,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4">
       <c r="A181" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B181" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C181">
         <v>2</v>
@@ -6549,12 +7486,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4">
       <c r="A182" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B182" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C182">
         <v>4</v>
@@ -6563,12 +7500,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4">
       <c r="A183" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B183" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C183">
         <v>4</v>
@@ -6577,12 +7514,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4">
       <c r="A184" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B184" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C184">
         <v>3</v>
@@ -6591,12 +7528,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4">
       <c r="A185" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B185" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C185">
         <v>4</v>
@@ -6605,12 +7542,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4">
       <c r="A186" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B186" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C186">
         <v>5</v>
@@ -6619,12 +7556,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4">
       <c r="A187" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B187" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C187">
         <v>3</v>
@@ -6633,12 +7570,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4">
       <c r="A188" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B188" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C188">
         <v>6</v>
@@ -6647,12 +7584,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4">
       <c r="A189" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B189" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C189">
         <v>4</v>
@@ -6661,12 +7598,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4">
       <c r="A190" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B190" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C190">
         <v>3</v>
@@ -6675,12 +7612,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4">
       <c r="A191" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B191" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C191">
         <v>2</v>
@@ -6689,12 +7626,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4">
       <c r="A192" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B192" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C192">
         <v>3</v>
@@ -6703,12 +7640,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:4">
       <c r="A193" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B193" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C193">
         <v>3</v>
@@ -6717,12 +7654,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4">
       <c r="A194" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B194" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C194">
         <v>4</v>
@@ -6731,12 +7668,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4">
       <c r="A195" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B195" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C195">
         <v>3</v>
@@ -6745,12 +7682,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4">
       <c r="A196" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B196" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C196">
         <v>3</v>
@@ -6759,12 +7696,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:4">
       <c r="A197" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B197" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C197">
         <v>3</v>
@@ -6773,12 +7710,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4">
       <c r="A198" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B198" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C198">
         <v>3</v>
@@ -6787,12 +7724,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4">
       <c r="A199" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B199" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C199">
         <v>3</v>
@@ -6801,12 +7738,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:4">
       <c r="A200" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B200" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C200">
         <v>3</v>
@@ -6815,12 +7752,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4">
       <c r="A201" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B201" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C201">
         <v>2</v>
@@ -6831,51 +7768,54 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="E3:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="6"/>
   <cols>
-    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E3" s="1" t="s">
-        <v>61</v>
+    <row r="3" spans="5:7">
+      <c r="E3" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="F3" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="G3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E4" s="1" t="s">
-        <v>60</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="5:7">
+      <c r="E4" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G4" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -6885,20 +7825,20 @@
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <sheetData>
-    <row r="5" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="5:7">
       <c r="E5" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="F5" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="5:7" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="6:7">
       <c r="F6">
         <v>1</v>
       </c>
@@ -6906,7 +7846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="6:7">
       <c r="F7">
         <v>0</v>
       </c>
@@ -6914,51 +7854,53 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="5:7">
       <c r="E9" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="G9" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+    <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="8.88888888888889" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="B1" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="B2">
         <v>92</v>
@@ -6967,9 +7909,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="B3">
         <v>98</v>
@@ -6978,9 +7920,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B4">
         <v>98</v>
@@ -6989,9 +7931,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B5">
         <v>100</v>
@@ -7002,7 +7944,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>